--- a/data/publications/orcid/export_to_manual/Uniwersytet_Śląski_w_Katowicach_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Śląski_w_Katowicach_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3094 +436,3436 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Dominik Kamil Adamek</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0210-1353</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Kto bywa cyniczny w pracy? Zaangażowanie w pracę, przywiązanie do organizacji i etyka pracy a cynizm organizacyjny</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ZARZĄDZANIE ZASOBAMI LUDZKIMI</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dominik_Kamil_Adamek_1</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Karina Atłas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4363-3583</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Ciemniejsza strona bohaterstwa</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Psychologia w praktyce</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Karina_Atłas_2</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Lidia Natalia Baran</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://orcid.org/0000-0002-3118-1997 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Terapia akceptacji i zaangażowania (ACT) w zaburzeniach lękowych.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Psychiatria po Dyplomie</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lidia_Natalia_Baran_5</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Lidia Natalia Baran</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve"> https://orcid.org/0000-0002-3118-1997 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Między myślą a czynem – o pomiarze utajonych  konstruktów psychicznych za pomocą Implicit Relational Assessment Procedure.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lidia_Natalia_Baran_7</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mateusz Blukacz</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4689-5650</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Impact of pre-operative glycated haemoglobin A1C level on 1-year outcomes of endovascular treatment in patients with critical limb ischemia in the course of diabetes mellitus.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Folia medica Cracoviensia</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mateusz_Blukacz_9</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Depression and marital satisfaction: the mediating role of sexual satisfaction and perceived partner acceptance in women after mastectomy.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_8</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Obraz ciała a samoocena kobiet z rakiem piersi – rola akceptacji ciała.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Psychoonkologia</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_10</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Ricorso ai termini psychiatrii nel linguaggio della rete. Rispecchio della realta’ o prestiti poco felici? </t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_11</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Skala Satysfakcji Seksualnej Kobiet Cindy Meston i Paula Trapnella – właściwości psychometryczne polskiej wersji narzędzia</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_12</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>34</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>„Rak piersi – kryzys egzystencjalny czy estetyczny? Decyzja o rekonstrukcji piersi – analiza jakościowa”</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Journal of Health, Education and Sport</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_13</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Anna Aleksandra Brandt-Salmeri</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9432-3016</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Za gruba, za chuda, nieładna – problem społecznej stygmatyzacji osób o ciele „nieidealnym” </t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Anna_Aleksandra_Brandt-Salmeri_14</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>37</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Michał Henryk Brol</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5486-4571</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>System mediacji jako przykład współpracy na rzecz zapobiegania i rozwiązywania konfliktów wewnątrzorganizacyjnych</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Michał_Henryk_Brol_2</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>38</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Michał Henryk Brol</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5486-4571</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>System mediacji jako przykład współpracy na rzecz zapobiegania i rozwiązywania konfliktów wewnątrzorganizacyjnych</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Michał_Henryk_Brol_3</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>48</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Edyta Charzyńska</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9375-1433</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>University connectedness among students and its measurement.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Przegląd Pedagogiczny</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Edyta_Charzyńska_10</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>49</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Edyta Charzyńska</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9375-1433</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Being a grateful student :mediating mechanisms between gratitude and well-being among university students</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Ekon.-Prav. Vikliki Roku</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Edyta_Charzyńska_11</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>51</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Edyta Charzyńska</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9375-1433</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Aspekty wybaczania a jakość życia uwarunkowana stanem zdrowia wśród pacjentów z nowotworem</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Edyta_Charzyńska_13</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>52</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Edyta Charzyńska</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9375-1433</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Czytelność tekstów na stronach NFZ i MZ :analiza statystyczna oraz porównanie z popularnymi serwisami zdrowotnymi</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Hygeia (Warsz.)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Edyta_Charzyńska_14</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>53</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Maria Chełkowska-Zacharewicz</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5214-0297</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Jakim muzykiem chcesz być? Model elastyczności psychologicznej w służbie muzykom: wprowadzenie</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2020-12-01</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Konteksty Kształcenia Muzycznego</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Maria_Chełkowska-Zacharewicz_1</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>58</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Mikołaj Wit Cugowski</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8602-0920</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Diagnostic Issues in Cases of Juvenile with Substance Abuse Problem in Forensic Psychology Field</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2018-12-30</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>European Journal of Social Science Education and Research</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Mikołaj_Wit_Cugowski_1</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>61</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Wiola Friedrich</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7072-2605</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Zakres badań psychologicznych przeprowadzonych w związku z przesłuchaniem w trybie art. 185a-185c k.p.k na tle uwag ogólnych dotyczących przesłuchania świadków</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2019-05</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Przegląd sądowy</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Wiola_Friedrich_3</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>62</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Wiola Friedrich</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7072-2605</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Oskarżony jako podmiot badań psychologicznych w procesie karnym - aspekty prawne i psychologiczn</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Przegląd sądowy</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Wiola_Friedrich_4</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>65</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Małgorzata Górnik-Durose</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3395-5324</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Funkcjonalność materializmu - perspektywa kulturowa i ewolucyjna</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>PRZEGLĄD PSYCHOLOGICZNY (THE REVIEW OF PSYCHOLOGY)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Małgorzata_Górnik-Durose_2</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>74</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Magdalena Hyla</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2268-6456</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Dlaczego opieramy się własnym marzeniom? Rozwój osobisty w perspektywie modelu elastyczności psychologicznej</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Chowanna</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Magdalena_Hyla_2</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>88</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Lęk porodowy – czynniki ryzyka oraz jego wpływ na przebieg porodu, połogu oraz stan noworodka</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Ginekologia i Poloznictwo</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Michalina_Ilska_12</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>90</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Labor anxiety–risk factors and impact on the course of labor, puerperium and neonatal condition</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>GinPolMedProject</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Michalina_Ilska_14</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>91</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Aktywność i satysfakcja seksualna kobiet w ciąży prawidłowej oraz wysokiego ryzyka</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Ginekologia i Poloznictwo</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Michalina_Ilska_15</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>92</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Dobrostan hedonistyczny i eudajmonistyczny w sytuacjach kryzysów normatywnych i nienormatywnych</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe politechniki Śląskiej. Organizacja i Zarządzanie</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Michalina_Ilska_16</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>95</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>„Małżonkowie powinni być najlepszymi przyjaciółmi”. Mity małżeńskie jako stereotypowe przekonania o małżeństwie – ich znaczenie w życiu pary i rodziny</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Michalina_Ilska_19</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>96</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t xml:space="preserve">Dobrze być dziadkiem…”; „Dobrze mieć dziadka…” – znaczenie zaangażowania dziadków w pomoc rodzinom oraz w opiekę nad wnukami, </t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Społeczeństwo i Edukacja</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Michalina_Ilska_20</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>97</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Sexual activity and sexual satisfaction of women in low-risk and high-risk pregnancy</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Ginekologia i Położnictwo – Medical Project</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Michalina_Ilska_21</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>98</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Michalina Ilska</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1733-9604</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Status Socjoekonomiczny kobiet w okresie porozwodowym</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Społeczeństwo i Edukacja</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Michalina_Ilska_22</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>99</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>How to distinguish a “scientoskeptic” from a “scientoenthusiast”? Psychometric properties and criteria for qualitative interpretation of the scores of the Views of Science Questionnaire in a Polish quota sample</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_1</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>100</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Psychologiczne korelaty postaw wobec szczepionek na COVID-19 wśród polskich respondentów – migawkowe badanie przed rozpoczęciem masowej kampanii szczepień</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny / The Review of Psychology</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_2</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>101</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Self-reported body weight and weight-related stigmatization experiences among young adult women—two contexts, but similar attitudes related to body image, mental self-schemas, self-esteem, and stereotypes of people with obesity</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>PeerJ</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_3</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>103</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Funkcjonalność materializmu – perspektywa kulturowa i ewolucyjna</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny / The Review of Psychology</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_5</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>105</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Scjentoteizm pod lupą. Konstrukcja i własności psychometryczne kwestionariusza do badania aspektów światopoglądu scjentystycznego</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_7</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>106</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Łukasz Mateusz Jach</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8215-0795</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Spotlight on scientotheism. Structure and psychometric properties of the questionnaire for the study of scientistic worldview aspects</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>The Review of Psychology</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Łukasz_Mateusz_Jach_8</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>114</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Tomasz Daniel Jakubowski</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1918-4028</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Transmęskości : studia przypadku osób transpłciowych typu K/M</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Tomasz_Daniel_Jakubowski_5</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>115</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Anna Janina Jazłowska</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6471-2141</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Doświadczanie stresu i odnajdywanie pozytywnych aspektów rodzicielstwa w kontekście wychowywania dziecka z niepełnosprawnością intelektualną</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Dziecko krzywdzone. Teoria, badania, praktyka.</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Anna_Janina_Jazłowska_1</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>119</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Renata Kleszcz-Szczyrba</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-1242-3022</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Rodzina ekologiczna przyszłością ludzkości. Wspólne elementy zawarte w nauczaniu Pawła VI, Jana Pawła II oraz w pedagogice szensztackiej i koncepcjach antropologicznych prof. W. Fijałkowskiego</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Kwartalnik Naukowy Fides et Ratio</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Renata_Kleszcz-Szczyrba_1</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>125</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Dagna Joanna Kocur</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0861-4579</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Wpływ filmu 50 twarzy Greya na postawy wobec praktyk BDSM oraz zachowania seksualne</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Dagna_Joanna_Kocur_6</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>126</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Dagna Joanna Kocur</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0861-4579</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Sexual life in patients with selected neurotic disorders ; Życie seksualne pacjentów cierpiących na wybrane zaburzenia nerwicowe</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Dagna_Joanna_Kocur_7</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>127</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Dagna Joanna Kocur</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0861-4579</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Sexual life in patients with selected neurotic disorders,Zycie seksualne pacjentow cierpiacych na wybrane zaburzenia nerwicowe</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Dagna_Joanna_Kocur_8</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>134</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>The relationship between coping strategies and sleep problems</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Annals of Behavioral Medicine</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_1</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>135</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Upokorzenie w pracy: koncepcje teoretyczne oraz znaczenie dla zdrowia pracowników i funkcjonowania organizacji</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Medycyna Pracy</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_2</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>136</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Stress in manual and autonomous modes of collaboration with a cobot</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Computer in Human Behaviors</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_3</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>137</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Tactics of influence and deinfluentization, personality and the personal sense of power among Polish managers</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Roczniki Psychologiczne</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_4</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>138</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Ocena pracowników jako kluczowy proces w polityce kadrowej uczelni</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Gaz. Uniw. (Katowice)</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_5</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>140</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Barbara Kożusznik</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0574-8742</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>System mediacji jako przykład współpracy na rzecz zapobiegania i rozwiązywania konfliktów wewnątrzorganizacyjnych</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Humanum</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Barbara_Kożusznik_7</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>151</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Eugenia Mandal</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1125-1756</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Report. The 2th Polish Conference on Femininity and Masculinity, and Close Interpresonal Relations: „ Women – Men – Close Relations: Now and Then". University of Silesia in Katowice,18-19 October 2016.</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>The Review of Psychology. Przegląd Psychologiczny.</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Eugenia_Mandal_5</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>158</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Eugenia Mandal</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1125-1756</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Report. The 1st Polish Conference on Femininity and Masculinity, and Close Interpresonal Relations: „ Women – Men – Romantic  Relationships”. University of Silesia in Katowice, 12-13th October 2016.</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>The Review of Psychology. Przegląd Psychologiczny.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Eugenia_Mandal_12</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>159</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Eugenia Mandal</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1125-1756</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Questionnaire of Support in Marriage and Close Relationships. Kwestionariusz Wsparcia w Małżeństwie i Bliskich Związkach</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>2017-03</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>The Review of Psychology. Przegląd Psychologiczny.</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Eugenia_Mandal_13</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>179</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Mariola Paruzel-Czachura</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8716-9778</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t xml:space="preserve">Psychoterapia Gestalt w Zarządzaniu zasobami ludzkimi </t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Mariola_Paruzel-Czachura_7</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>180</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Mariola Paruzel-Czachura</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8716-9778</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Co? Kto? Komu? – Kierunki badań we współczesnej psychologii ocen moralnych</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Mariola_Paruzel-Czachura_8</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>186</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Mariola Paruzel-Czachura</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8716-9778</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Przyszłym menedżerom potrzeba terapii: Doświadczenia rodzinne a ryzyko rozwoju zaburzeń funkcjonowania psychicznego u przyszłych przedsiębiorców</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Mariola_Paruzel-Czachura_14</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>187</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Mariola Paruzel-Czachura</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8716-9778</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>„Biję, ale kocham” – koncepcja przemocy w związku intymnym z perspektywy psychologii moralności</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Humanum. Międzynarodowe Studia Społeczno-Humanistyczne</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Mariola_Paruzel-Czachura_15</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>202</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Anita Janina Pollak</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9921-6607</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Czy zaangażowani pracownicy zarabiają więcej? Moderująca rola wymagań pracy w relacji zaangażowania do wynagrodzenia</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2019-05-01</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Anita_Janina_Pollak_6</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>203</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Anita Janina Pollak</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9921-6607</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Prężność psychiczna i orientacja pozytywna a wydajność pracowników. Rola psychologicznego zespołowego klimatu bezpieczeństwa</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>2019-05-01</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Anita_Janina_Pollak_7</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>204</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Anita Janina Pollak</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9921-6607</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Rola zaufania w kształtowaniu zaangażowania w pracę – mediacyjny efekt motywacji autonomicznej</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>2018-12-12</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Anita_Janina_Pollak_8</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>205</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Anita Janina Pollak</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9921-6607</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Inteligencja emocjonalna, orientacja pozytywna i autentyczne przywództwo wśród polskich menedżerów : doniesienie z badań</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2017-10-15</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Anita_Janina_Pollak_9</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>206</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Anita Janina Pollak</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9921-6607</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Technologie w zarządzaniu zasobami ludzkimi (eHRM) w małych i średnich firmach – walidacja modelu uogólnionej teorii akceptacji i korzystania z technologii (UTAUT)</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>2017-10-15</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Zarządzanie Zasobami Ludzkimi</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Anita_Janina_Pollak_10</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>216</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Characteristics of children experiencing direct and indirect domestic violence and abuse,Charakterystyka dzieci doświadczajacych bezpośredniej i pośredniej przemocy w rodzinie</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Z Zagadnien Nauk Sadowych</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Magdalena_Rode_2</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>218</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Psychological diagnosis of demoralisation in juvenile forensic assessments: fields, models and new directions</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Magdalena_Rode_4</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>219</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Psychological diagnosis of demoralisation in juvenile forensic assessments: fields, models and new directions</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Magdalena_Rode_5</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>220</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Indywidualne i sytuacyjne korelaty depresji u osób odbywających karę pozbawienia wolności</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Magdalena_Rode_6</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>221</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Psychological Diagnosis of Demoralisation in Juvenile Forensic Assessments : Fields, Models and New Directions</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Magdalena_Rode_7</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>224</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Characteristics of children experiencing direct and indirect domestic violence and abuse</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Magdalena_Rode_10</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>225</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Magdalena Rode</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-4409-6396</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Characteristics of Children Experiencing Direct and Indirect Domestic Violence and Abuse</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Magdalena_Rode_11</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>227</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Jagoda Paulina Różycka</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3341-4202</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Determinants of early adaptation to multiple sclerosis</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2019-10</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Jagoda_Paulina_Różycka_2</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>228</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Elżbieta Anna Sanecka</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3401-2782</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>The role of Machiavellianism and loneliness in predicting self-disclosure online</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>The New Educational Review</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Elżbieta_Anna_Sanecka_1</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>242</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Work safety climate. Comparison of selected occupational groups</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_1</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>243</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Poczucie zagrożenia a stres − mediująca rola więzi społecznych w miejscu pracy na przykładzie zawodu ratownika górniczego</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Medycyna Pracy</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_2</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>244</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t xml:space="preserve">The severity of work-related stress and an assessment of the areas of worklife in the service sector </t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Int. J. Occupational Med. Environ. Health.</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_3</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>245</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Etyka pracy, przywiązanie organizacyjne a wypalenie zawodowe</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2019-04</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Medycyna Pracy 70(3):305–316</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_4</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>246</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>Ocena obszarów życia zawodowego funkcjonariuszy Straży Granicznej a nasilenie stresu</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>edycyna Pracy</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_5</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>247</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Marta Stasiła-Sieradzka</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2917-9617</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Ocena środowiska pracy i poczucie zagrożenia a nasilenie stresu w pracy wysokiego ryzyka - propozycja interwencji organizacyjnej</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Medycyna Pracy</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Marta_Stasiła-Sieradzka_6</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>263</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Poczucie zagrożenia a stres − mediująca rola więzi społecznych w miejscu pracy na przykładzie zawodu ratownika górniczego</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Medycyna Pracy</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_1</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>264</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Orientacje życiowe a postawy wobec rynku ludzi młodych</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_2</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>265</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Postawy rodzicielskie a otwartość na karierę międzynarodową młodych dorosłych</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Chowanna</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_3</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>266</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Connections between national culture and mobbing</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Przegląd Organizacji</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_4</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>267</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>Perception of parental attitudes and work ethics of young adults</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_5</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>268</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Poczucie misji społecznej  oraz więzi ze współpracownikami a zadowolenie z pracy w grupie ratowników górniczych</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_6</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>269</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Elżbieta Turska</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0963-4424</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t xml:space="preserve">Przedziałowość a wybrane właściwości funkcjonowania  edukacyjno-zawodowego ludzi młodych </t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Elżbieta_Turska_7</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
